--- a/Models/SimpleBot/simplebot_bom.xlsx
+++ b/Models/SimpleBot/simplebot_bom.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>Brick</t>
   </si>
@@ -92,12 +92,6 @@
     <t>TECHNIC ANG. BEAM 3X5 90 DEG.</t>
   </si>
   <si>
-    <t>4211573</t>
-  </si>
-  <si>
-    <t>1/2 BUSH</t>
-  </si>
-  <si>
     <t>4121715</t>
   </si>
   <si>
@@ -125,10 +119,22 @@
     <t>BUSH FOR CROSS AXLE</t>
   </si>
   <si>
+    <t>655826</t>
+  </si>
+  <si>
+    <t>CONNECTOR PEG W. FRICTION 3M</t>
+  </si>
+  <si>
     <t>4211639</t>
   </si>
   <si>
     <t>CROSS AXLE 5M</t>
+  </si>
+  <si>
+    <t>4526982</t>
+  </si>
+  <si>
+    <t>TUBE Ø7,84 2M</t>
   </si>
   <si>
     <t>4121667</t>
@@ -517,7 +523,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="4211573 Screenshot" descr="4211573"/>
+        <xdr:cNvPr id="10" name="4121715 Screenshot" descr="4121715"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -561,7 +567,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="4121715 Screenshot" descr="4121715"/>
+        <xdr:cNvPr id="11" name="4211815 Screenshot" descr="4211815"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -605,7 +611,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="4211815 Screenshot" descr="4211815"/>
+        <xdr:cNvPr id="12" name="4666579 Screenshot" descr="4666579"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -649,7 +655,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="4666579 Screenshot" descr="4666579"/>
+        <xdr:cNvPr id="13" name="4211622 Screenshot" descr="4211622"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -693,7 +699,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="4211622 Screenshot" descr="4211622"/>
+        <xdr:cNvPr id="14" name="655826 Screenshot" descr="655826"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -781,7 +787,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="4121667 Screenshot" descr="4121667"/>
+        <xdr:cNvPr id="16" name="4526982 Screenshot" descr="4526982"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -825,7 +831,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="4296059 Screenshot" descr="4296059"/>
+        <xdr:cNvPr id="17" name="4121667 Screenshot" descr="4121667"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -845,6 +851,50 @@
       <xdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="3448050" y="13611225"/>
+          <a:ext cx="813600" cy="813600"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>755650</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>812800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="4296059 Screenshot" descr="4296059"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="image17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3448050" y="14449425"/>
           <a:ext cx="813600" cy="813600"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
@@ -859,7 +909,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1035,13 +1085,13 @@
         <v>28</v>
       </c>
       <c r="D10">
-        <v>32123</v>
+        <v>2780</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="66" customHeight="1">
@@ -1052,13 +1102,13 @@
         <v>30</v>
       </c>
       <c r="D11">
-        <v>2780</v>
+        <v>4519</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F11">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="66" customHeight="1">
@@ -1069,10 +1119,10 @@
         <v>32</v>
       </c>
       <c r="D12">
-        <v>4519</v>
+        <v>6562</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -1080,19 +1130,19 @@
     </row>
     <row r="13" spans="1:6" ht="66" customHeight="1">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13">
-        <v>6562</v>
+        <v>6590</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="66" customHeight="1">
@@ -1103,10 +1153,10 @@
         <v>37</v>
       </c>
       <c r="D14">
-        <v>6590</v>
+        <v>6558</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -1137,13 +1187,13 @@
         <v>41</v>
       </c>
       <c r="D16">
-        <v>32184</v>
+        <v>75535</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="66" customHeight="1">
@@ -1154,21 +1204,38 @@
         <v>43</v>
       </c>
       <c r="D17">
-        <v>55615</v>
+        <v>32184</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="66" customHeight="1">
       <c r="A18" t="s">
         <v>44</v>
       </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18">
+        <v>55615</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
       <c r="F18">
-        <f>SUM(F2:F17)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19">
+        <f>SUM(F2:F18)</f>
       </c>
     </row>
   </sheetData>
